--- a/Perceptron_Tres.xlsx
+++ b/Perceptron_Tres.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mike\Documents\Python Scripts\AnalisisAlgoritmos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2A98D7-A10B-4E8B-83B3-4AFDA07FAAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{109B9230-7808-4C7C-8C5C-51296AE83D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{9C7E0622-DA9D-44A6-A96D-3C5109EB636B}"/>
   </bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8014DC69-E259-44A4-891B-A17CF9A3E8FD}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
     <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -410,7 +410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-42</v>
       </c>
@@ -419,6 +419,10 @@
       </c>
       <c r="C2">
         <f>IF(AND(A2&gt;0,B2&gt;0),1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>IF(((A2*41.18)+(B2*7.91)-1.2)&gt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="E2" t="str">
@@ -429,8 +433,12 @@
         <f>CONCATENATE("[",C2,",")</f>
         <v>[0,</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M2" t="str">
+        <f>CONCATENATE(A2,",",B2,",",C2)</f>
+        <v>-42,-8,0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -441,16 +449,24 @@
         <f t="shared" ref="C3:C50" si="0">IF(AND(A3&gt;0,B3&gt;0),1,0)</f>
         <v>1</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D50" si="1">IF(((A3*41.18)+(B3*7.91)-1.2)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E50" si="1">CONCATENATE("[",A3,",",B3,"],")</f>
+        <f t="shared" ref="E3:E50" si="2">CONCATENATE("[",A3,",",B3,"],")</f>
         <v>[21,31],</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(F2,C3,",")</f>
         <v>[0,1,</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M50" si="3">CONCATENATE(A3,",",B3,",",C3)</f>
+        <v>21,31,1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>48</v>
       </c>
@@ -461,16 +477,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[48,28],</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F50" si="2">CONCATENATE(F3,C4,",")</f>
+        <f t="shared" ref="F4:F50" si="4">CONCATENATE(F3,C4,",")</f>
         <v>[0,1,1,</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M4" t="str">
+        <f t="shared" si="3"/>
+        <v>48,28,1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-42</v>
       </c>
@@ -481,16 +505,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-42,60],</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M5" t="str">
+        <f t="shared" si="3"/>
+        <v>-42,60,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-34</v>
       </c>
@@ -501,16 +533,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-34,-19],</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M6" t="str">
+        <f t="shared" si="3"/>
+        <v>-34,-19,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>46</v>
       </c>
@@ -521,16 +561,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[46,91],</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M7" t="str">
+        <f t="shared" si="3"/>
+        <v>46,91,1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>93</v>
       </c>
@@ -541,16 +589,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[93,83],</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M8" t="str">
+        <f t="shared" si="3"/>
+        <v>93,83,1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -561,16 +617,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[8,44],</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M9" t="str">
+        <f t="shared" si="3"/>
+        <v>8,44,1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>20</v>
       </c>
@@ -581,16 +645,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[20,28],</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M10" t="str">
+        <f t="shared" si="3"/>
+        <v>20,28,1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>23</v>
       </c>
@@ -601,16 +673,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[23,-10],</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M11" t="str">
+        <f t="shared" si="3"/>
+        <v>23,-10,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-18</v>
       </c>
@@ -621,16 +701,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-18,41],</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M12" t="str">
+        <f t="shared" si="3"/>
+        <v>-18,41,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-50</v>
       </c>
@@ -641,16 +729,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-50,-25],</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M13" t="str">
+        <f t="shared" si="3"/>
+        <v>-50,-25,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>20</v>
       </c>
@@ -661,16 +757,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[20,49],</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M14" t="str">
+        <f t="shared" si="3"/>
+        <v>20,49,1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>85</v>
       </c>
@@ -681,16 +785,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[85,5],</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M15" t="str">
+        <f t="shared" si="3"/>
+        <v>85,5,1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>91</v>
       </c>
@@ -701,16 +813,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[91,-1],</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="3"/>
+        <v>91,-1,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -721,16 +841,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[14,-32],</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="3"/>
+        <v>14,-32,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>30</v>
       </c>
@@ -741,16 +869,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[30,-23],</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="3"/>
+        <v>30,-23,0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -761,16 +897,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[2,78],</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="3"/>
+        <v>2,78,1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -781,16 +925,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[15,88],</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="3"/>
+        <v>15,88,1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-6</v>
       </c>
@@ -801,16 +953,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-6,91],</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="3"/>
+        <v>-6,91,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>64</v>
       </c>
@@ -821,16 +981,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[64,80],</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M22" t="str">
+        <f t="shared" si="3"/>
+        <v>64,80,1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-42</v>
       </c>
@@ -841,16 +1009,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-42,68],</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f t="shared" si="3"/>
+        <v>-42,68,0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-30</v>
       </c>
@@ -861,16 +1037,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-30,-12],</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M24" t="str">
+        <f>CONCATENATE(A24,",",B24,",",C24)</f>
+        <v>-30,-12,0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>100</v>
       </c>
@@ -881,16 +1065,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[100,50],</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f t="shared" si="3"/>
+        <v>100,50,1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>42</v>
       </c>
@@ -901,16 +1093,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[42,38],</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v>42,38,1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-37</v>
       </c>
@@ -921,16 +1121,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-37,61],</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v>-37,61,0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>87</v>
       </c>
@@ -941,16 +1149,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[87,-16],</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v>87,-16,0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-9</v>
       </c>
@@ -961,16 +1177,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-9,-20],</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>-9,-20,0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-32</v>
       </c>
@@ -981,16 +1205,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-32,-2],</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>-32,-2,0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>25</v>
       </c>
@@ -1001,16 +1233,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[25,12],</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>25,12,1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1021,16 +1261,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[2,72],</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f t="shared" si="3"/>
+        <v>2,72,1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-32</v>
       </c>
@@ -1041,16 +1289,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-32,-40],</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f t="shared" si="3"/>
+        <v>-32,-40,0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>55</v>
       </c>
@@ -1061,16 +1317,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[55,-39],</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="3"/>
+        <v>55,-39,0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-49</v>
       </c>
@@ -1081,16 +1345,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-49,22],</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M35" t="str">
+        <f t="shared" si="3"/>
+        <v>-49,22,0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>18</v>
       </c>
@@ -1101,16 +1373,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[18,-48],</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M36" t="str">
+        <f t="shared" si="3"/>
+        <v>18,-48,0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-46</v>
       </c>
@@ -1121,16 +1401,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-46,67],</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f t="shared" si="3"/>
+        <v>-46,67,0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>65</v>
       </c>
@@ -1141,16 +1429,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[65,0],</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M38" t="str">
+        <f t="shared" si="3"/>
+        <v>65,0,0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -1161,16 +1457,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[24,35],</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f t="shared" si="3"/>
+        <v>24,35,1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>29</v>
       </c>
@@ -1181,16 +1485,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[29,85],</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f t="shared" si="3"/>
+        <v>29,85,1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-9</v>
       </c>
@@ -1201,16 +1513,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-9,29],</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f>CONCATENATE(A41,",",B41,",",C41)</f>
+        <v>-9,29,0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>0</v>
       </c>
@@ -1221,16 +1541,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[0,4],</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f t="shared" si="3"/>
+        <v>0,4,0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-47</v>
       </c>
@@ -1241,16 +1569,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-47,67],</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f t="shared" si="3"/>
+        <v>-47,67,0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>92</v>
       </c>
@@ -1261,16 +1597,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[92,90],</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" si="3"/>
+        <v>92,90,1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>92</v>
       </c>
@@ -1281,16 +1625,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[92,46],</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="3"/>
+        <v>92,46,1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-43</v>
       </c>
@@ -1301,16 +1653,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[-43,31],</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,0,</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="3"/>
+        <v>-43,31,0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>97</v>
       </c>
@@ -1321,16 +1681,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[97,74],</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,0,1,</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="3"/>
+        <v>97,74,1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>87</v>
       </c>
@@ -1341,16 +1709,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[87,22],</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,0,1,1,</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="3"/>
+        <v>87,22,1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>94</v>
       </c>
@@ -1361,16 +1737,24 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[94,18],</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,0,1,1,1,</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="3"/>
+        <v>94,18,1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>79</v>
       </c>
@@ -1381,13 +1765,21 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>[79,-36],</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>[0,1,1,0,0,1,1,1,1,0,0,0,1,1,0,0,0,1,1,0,1,0,0,1,1,0,0,0,0,1,1,0,0,0,0,0,0,1,1,0,0,0,1,1,0,1,1,1,0,</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="3"/>
+        <v>79,-36,0</v>
       </c>
     </row>
   </sheetData>
